--- a/class/mat/345/assignment/4/data.xlsx
+++ b/class/mat/345/assignment/4/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BIGI\Teaching\DigiPen\18-19FA - MAT 345\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Underdisc\home\digipen\semester\class\mat\345\assignment\4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{916275F9-49D6-4D93-B04A-2588B9966B63}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{832AD6E5-D849-49B9-A84A-3EDA6572289A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1218" yWindow="360" windowWidth="19278" windowHeight="7038" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1220" yWindow="360" windowWidth="19280" windowHeight="7040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HW3 videogame data" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="12">
-  <si>
-    <t>Set B</t>
-  </si>
-  <si>
-    <t>Set A (training)</t>
-  </si>
   <si>
     <t>T</t>
   </si>
@@ -56,6 +50,12 @@
   </si>
   <si>
     <t>MAT 345 - HW 4 data</t>
+  </si>
+  <si>
+    <t>Set B Testing</t>
+  </si>
+  <si>
+    <t>Set A Training</t>
   </si>
 </sst>
 </file>
@@ -108,6 +108,84 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Button 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1625417A-CE18-4F80-B9B4-80A616B6258D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="36576" bIns="36576" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Button 1</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -430,46 +508,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <pane ySplit="960" activePane="bottomLeft"/>
-      <selection activeCell="C3" sqref="C3"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.15625" customWidth="1"/>
-    <col min="2" max="2" width="17.68359375" customWidth="1"/>
-    <col min="3" max="3" width="14.83984375" customWidth="1"/>
-    <col min="4" max="4" width="13.68359375" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" customWidth="1"/>
+    <col min="2" max="2" width="17.6328125" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>1</v>
       </c>
       <c r="B4">
         <v>2008</v>
@@ -481,10 +558,10 @@
         <v>6.6</v>
       </c>
       <c r="E4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>2008</v>
       </c>
@@ -495,10 +572,10 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="E5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>2008</v>
       </c>
@@ -509,10 +586,10 @@
         <v>7.9</v>
       </c>
       <c r="E6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>2008</v>
       </c>
@@ -523,10 +600,10 @@
         <v>5.7</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>2009</v>
       </c>
@@ -537,10 +614,10 @@
         <v>7.3</v>
       </c>
       <c r="E8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>2009</v>
       </c>
@@ -551,10 +628,10 @@
         <v>8.4</v>
       </c>
       <c r="E9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>2009</v>
       </c>
@@ -565,10 +642,10 @@
         <v>8.1</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>2009</v>
       </c>
@@ -579,10 +656,10 @@
         <v>1.8</v>
       </c>
       <c r="E11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>2009</v>
       </c>
@@ -593,10 +670,10 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>2009</v>
       </c>
@@ -607,10 +684,10 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="E13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>2009</v>
       </c>
@@ -621,10 +698,10 @@
         <v>2.4</v>
       </c>
       <c r="E14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>2010</v>
       </c>
@@ -635,10 +712,10 @@
         <v>6.6</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>2010</v>
       </c>
@@ -649,10 +726,10 @@
         <v>4.2</v>
       </c>
       <c r="E16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>2010</v>
       </c>
@@ -663,10 +740,10 @@
         <v>5.5</v>
       </c>
       <c r="E17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>2010</v>
       </c>
@@ -677,10 +754,10 @@
         <v>5.5</v>
       </c>
       <c r="E18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>2011</v>
       </c>
@@ -691,10 +768,10 @@
         <v>3.9</v>
       </c>
       <c r="E19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>2011</v>
       </c>
@@ -705,10 +782,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="E20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>2011</v>
       </c>
@@ -719,10 +796,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>2011</v>
       </c>
@@ -733,10 +810,10 @@
         <v>3.5</v>
       </c>
       <c r="E22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>2011</v>
       </c>
@@ -747,10 +824,10 @@
         <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>2011</v>
       </c>
@@ -761,10 +838,10 @@
         <v>6.5</v>
       </c>
       <c r="E24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>2011</v>
       </c>
@@ -775,10 +852,10 @@
         <v>5.6</v>
       </c>
       <c r="E25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>2012</v>
       </c>
@@ -789,10 +866,10 @@
         <v>3.5</v>
       </c>
       <c r="E26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>2012</v>
       </c>
@@ -803,10 +880,10 @@
         <v>6.9</v>
       </c>
       <c r="E27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>2012</v>
       </c>
@@ -817,10 +894,10 @@
         <v>6.8</v>
       </c>
       <c r="E28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>2012</v>
       </c>
@@ -831,10 +908,10 @@
         <v>6.7</v>
       </c>
       <c r="E29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>2013</v>
       </c>
@@ -845,10 +922,10 @@
         <v>7.9</v>
       </c>
       <c r="E30" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>2013</v>
       </c>
@@ -859,10 +936,10 @@
         <v>6.3</v>
       </c>
       <c r="E31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>2013</v>
       </c>
@@ -873,10 +950,10 @@
         <v>3.4</v>
       </c>
       <c r="E32" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>2013</v>
       </c>
@@ -887,10 +964,10 @@
         <v>6.2</v>
       </c>
       <c r="E33" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>2013</v>
       </c>
@@ -901,10 +978,10 @@
         <v>7.2</v>
       </c>
       <c r="E34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>2014</v>
       </c>
@@ -915,10 +992,10 @@
         <v>7.7</v>
       </c>
       <c r="E35" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>2014</v>
       </c>
@@ -929,10 +1006,10 @@
         <v>7.9</v>
       </c>
       <c r="E36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>2014</v>
       </c>
@@ -943,10 +1020,10 @@
         <v>6.6</v>
       </c>
       <c r="E37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>2014</v>
       </c>
@@ -957,10 +1034,10 @@
         <v>7.1</v>
       </c>
       <c r="E38" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>2015</v>
       </c>
@@ -971,10 +1048,10 @@
         <v>8.9</v>
       </c>
       <c r="E39" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>2015</v>
       </c>
@@ -985,10 +1062,10 @@
         <v>8.6</v>
       </c>
       <c r="E40" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>2016</v>
       </c>
@@ -999,10 +1076,10 @@
         <v>6.2</v>
       </c>
       <c r="E41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>2016</v>
       </c>
@@ -1013,10 +1090,10 @@
         <v>6.7</v>
       </c>
       <c r="E42" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>2016</v>
       </c>
@@ -1027,10 +1104,10 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="E43" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>2016</v>
       </c>
@@ -1041,10 +1118,10 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="E44" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>2016</v>
       </c>
@@ -1055,12 +1132,12 @@
         <v>7.1</v>
       </c>
       <c r="E45" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B48">
         <v>2008</v>
@@ -1072,10 +1149,10 @@
         <v>7.3</v>
       </c>
       <c r="E48" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B49">
         <v>2009</v>
       </c>
@@ -1086,10 +1163,10 @@
         <v>7.5</v>
       </c>
       <c r="E49" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B50">
         <v>2010</v>
       </c>
@@ -1100,10 +1177,10 @@
         <v>5.6</v>
       </c>
       <c r="E50" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B51">
         <v>2011</v>
       </c>
@@ -1114,10 +1191,10 @@
         <v>6.2</v>
       </c>
       <c r="E51" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B52">
         <v>2011</v>
       </c>
@@ -1128,10 +1205,10 @@
         <v>4.5</v>
       </c>
       <c r="E52" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B53">
         <v>2012</v>
       </c>
@@ -1142,10 +1219,10 @@
         <v>6.2</v>
       </c>
       <c r="E53" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B54">
         <v>2013</v>
       </c>
@@ -1156,10 +1233,10 @@
         <v>5.8</v>
       </c>
       <c r="E54" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B55">
         <v>2016</v>
       </c>
@@ -1170,12 +1247,12 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="E55" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B58">
         <v>2009</v>
@@ -1187,7 +1264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B59">
         <v>2013</v>
       </c>
@@ -1198,7 +1275,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B60">
         <v>2015</v>
       </c>
@@ -1214,5 +1291,35 @@
     <sortCondition ref="B49:B55"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1025" r:id="rId3" name="Button 1">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!Train">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>